--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -1,44 +1,28 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Worksheets</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>3</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="3" baseType="lpstr">
-      <vt:lpstr>Amazon</vt:lpstr>
-      <vt:lpstr>SearchPage</vt:lpstr>
-      <vt:lpstr>Softassert</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D67AE-4AF0-4AFF-A2F7-E5737D783A10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
+    <sheet name="SearchPage" sheetId="5" r:id="rId2"/>
+    <sheet name="Softassert" sheetId="11" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Macharla, Pradeep</dc:creator>
-  <cp:lastModifiedBy>Divya M</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2014-12-07T20:26:11Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2022-01-17T11:22:07Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>element_type</t>
   </si>
@@ -296,11 +280,14 @@
   </si>
   <si>
     <t>fav_language</t>
+  </si>
+  <si>
+    <t>radiobutton</t>
   </si>
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -358,7 +345,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -677,29 +664,7 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0778C7-A4C2-456B-984F-4F68BBB8DCCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="SearchPage" sheetId="5" r:id="rId2"/>
-    <sheet name="Softassert" sheetId="11" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -873,7 +838,7 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -1004,12 +969,12 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5024E3-81CA-4D04-903A-38B8D224F9BA}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1179,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>84</v>
       </c>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D67AE-4AF0-4AFF-A2F7-E5737D783A10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B67E080-00A6-41E3-9F72-F373F812D5FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>element_type</t>
   </si>
@@ -974,7 +974,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1166,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B67E080-00A6-41E3-9F72-F373F812D5FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE3DA06-14AE-45E7-A98C-9A39C18B0DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>element_type</t>
   </si>
@@ -974,7 +974,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1153,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE3DA06-14AE-45E7-A98C-9A39C18B0DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE110C53-E767-4814-A8CF-E078A5EDA8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>search_dropdown</t>
   </si>
   <si>
-    <t>searchDropdownBox</t>
-  </si>
-  <si>
     <t>option</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>radiobutton</t>
+  </si>
+  <si>
+    <t>searchDropdownBox2</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -775,65 +775,65 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F7 A9:F14 A8:C8 E8:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -862,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -874,13 +874,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -921,10 +921,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -943,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5024E3-81CA-4D04-903A-38B8D224F9BA}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1012,143 +1012,143 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1157,26 +1157,26 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1184,15 +1184,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersionNew\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE110C53-E767-4814-A8CF-E078A5EDA8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7106E47-7292-4799-B13B-EA622C7B456D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersionNew\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7106E47-7292-4799-B13B-EA622C7B456D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA75AA4-D18C-48C8-BD69-7313B4A27399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <t>radiobutton</t>
   </si>
   <si>
-    <t>searchDropdownBox2</t>
+    <t>searchDropdownBox</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE3DA06-14AE-45E7-A98C-9A39C18B0DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43622C-2A49-4E24-A861-2B50B6D4063E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>search_dropdown</t>
   </si>
   <si>
-    <t>searchDropdownBox</t>
-  </si>
-  <si>
     <t>option</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>radiobutton</t>
+  </si>
+  <si>
+    <t>searchDropdownBox2</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -775,65 +775,65 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F7 A9:F14 A8:C8 E8:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -862,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -874,13 +874,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -921,10 +921,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -943,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5024E3-81CA-4D04-903A-38B8D224F9BA}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1012,143 +1012,143 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1157,26 +1157,26 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1184,15 +1184,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersionNew\src\test\resources\testdata\pageobjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\VersionControlExcel\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA75AA4-D18C-48C8-BD69-7313B4A27399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21D245-F7FB-46FE-91EC-011F9C3C649A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>select</t>
   </si>
   <si>
-    <t>search_dropdown</t>
-  </si>
-  <si>
     <t>option</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>searchDropdownBox</t>
+  </si>
+  <si>
+    <t>search_dropdown1</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -772,68 +772,68 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F7 A9:F14 A8:C8 E8:F8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F7 A9:F14 A8 E8:F8 C8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -862,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -874,13 +874,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -921,10 +921,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -943,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1012,143 +1012,143 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1157,26 +1157,26 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1184,15 +1184,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersionNew\src\test\resources\testdata\pageobjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA75AA4-D18C-48C8-BD69-7313B4A27399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BFCEE-9928-4F07-94ED-927D4DD1208D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>select</t>
   </si>
   <si>
-    <t>search_dropdown</t>
-  </si>
-  <si>
     <t>option</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>searchDropdownBox</t>
+  </si>
+  <si>
+    <t>search_dropdown1</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -772,68 +772,68 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F7 A9:F14 A8:C8 E8:F8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F7 A9:F14 A8 E8:F8 C8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -862,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -874,13 +874,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -921,10 +921,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -943,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1012,143 +1012,143 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1157,26 +1157,26 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1184,15 +1184,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\VersionControlExcel\src\test\resources\testdata\pageobjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB21D245-F7FB-46FE-91EC-011F9C3C649A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BFCEE-9928-4F07-94ED-927D4DD1208D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BFCEE-9928-4F07-94ED-927D4DD1208D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B62354-C68D-43CE-8E52-6B0C815DB294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <t>searchDropdownBox</t>
   </si>
   <si>
-    <t>search_dropdown1</t>
+    <t>search_dropdown</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B62354-C68D-43CE-8E52-6B0C815DB294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230DE30-33DD-4435-B1E4-0C119F387428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <t>searchDropdownBox</t>
   </si>
   <si>
-    <t>search_dropdown</t>
+    <t>search_dropdown1</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230DE30-33DD-4435-B1E4-0C119F387428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4896A12-A952-4B1D-8CCD-13C6C670AB9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <t>searchDropdownBox</t>
   </si>
   <si>
-    <t>search_dropdown1</t>
+    <t>search_dropdown</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B62354-C68D-43CE-8E52-6B0C815DB294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4896A12-A952-4B1D-8CCD-13C6C670AB9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/testdata/pageobjects/PageObjects.xlsx
+++ b/src/test/resources/testdata/pageobjects/PageObjects.xlsx
@@ -5,24 +5,43 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ExcelVersion\src\test\resources\testdata\pageobjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UB217ZA\Downloads\Github Clone NGTP\ngtp-trunk\src\test\resources\amazonDemo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4896A12-A952-4B1D-8CCD-13C6C670AB9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3A0B9-7647-4B56-87C1-8ED8E74ACEEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="SearchPage" sheetId="5" r:id="rId2"/>
-    <sheet name="Softassert" sheetId="11" r:id="rId3"/>
+    <sheet name="Softassert" sheetId="11" r:id="rId1"/>
+    <sheet name="Amazon" sheetId="1" r:id="rId2"/>
+    <sheet name="SecurityPage" sheetId="2" r:id="rId3"/>
+    <sheet name="NameChange" sheetId="3" r:id="rId4"/>
+    <sheet name="AccountPage" sheetId="4" r:id="rId5"/>
+    <sheet name="SearchPage" sheetId="5" r:id="rId6"/>
+    <sheet name="ProductPage" sheetId="6" r:id="rId7"/>
+    <sheet name="OrderCartPage" sheetId="7" r:id="rId8"/>
+    <sheet name="LoginPage" sheetId="8" r:id="rId9"/>
+    <sheet name="CheckOutPage" sheetId="9" r:id="rId10"/>
+    <sheet name="Results" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="187">
   <si>
     <t>element_type</t>
   </si>
@@ -57,141 +76,447 @@
     <t>search_bar</t>
   </si>
   <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>search_button</t>
+  </si>
+  <si>
+    <t>nav-search-submit-text</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>tile_1_item</t>
+  </si>
+  <si>
+    <t>(//div[@id="desktop-grid-1"]//a)[::index::]</t>
+  </si>
+  <si>
+    <t>tile_2_item</t>
+  </si>
+  <si>
+    <t>(//div[@id="desktop-grid-2"]//a)[::index::]</t>
+  </si>
+  <si>
+    <t>qlink</t>
+  </si>
+  <si>
+    <t>quick_link</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/header/div/div[1]/p/a</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>search_dropdown</t>
+  </si>
+  <si>
+    <t>searchDropdownBox</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>booksOption</t>
+  </si>
+  <si>
+    <t>[value="search-alias=stripbooks"]</t>
+  </si>
+  <si>
+    <t>account_list</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-link-accountList"]</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-flyout-ya-signin"]/a</t>
+  </si>
+  <si>
+    <t>account_name</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-link-accountList"]/span[1]</t>
+  </si>
+  <si>
+    <t>expected_message</t>
+  </si>
+  <si>
+    <t>Hello, Chase</t>
+  </si>
+  <si>
+    <t>your_account</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-al-your-account"]/a[2]</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>linktext</t>
+  </si>
+  <si>
+    <t>partiallinktext</t>
+  </si>
+  <si>
+    <t>tagname</t>
+  </si>
+  <si>
+    <t>edit_name</t>
+  </si>
+  <si>
+    <t>auth-cnep-edit-name-button</t>
+  </si>
+  <si>
+    <t>success_verification</t>
+  </si>
+  <si>
+    <t>//*[@id="auth-success-message-box"]/div/h4</t>
+  </si>
+  <si>
+    <t>//*[@id="cnep_1a_name_form"]/div/div/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>//*[@id="cnep_1a_email_form"]/div/div/div[1]/div[2]</t>
+  </si>
+  <si>
+    <t>name_change</t>
+  </si>
+  <si>
+    <t>//*[@id="ap_customer_name"]</t>
+  </si>
+  <si>
+    <t>Chase Kopp</t>
+  </si>
+  <si>
+    <t>save_changes</t>
+  </si>
+  <si>
+    <t>cnep_1C_submit_button</t>
+  </si>
+  <si>
+    <t>login_security</t>
+  </si>
+  <si>
+    <t>//*[@id="a-page"]/div[1]/div/div[2]/div[2]/a</t>
+  </si>
+  <si>
+    <t>search_result</t>
+  </si>
+  <si>
+    <t>(//div[@data-cel-widget="search_result_::index::"]//a)[2]</t>
+  </si>
+  <si>
+    <t>asus_zenbook</t>
+  </si>
+  <si>
+    <t>(//*[contains(text(),'ASUS ZenBook 13')])[1]</t>
+  </si>
+  <si>
+    <t>echo_dot</t>
+  </si>
+  <si>
+    <t>(//*[contains(text(), 'Echo Dot (3rd Gen)')])[1]</t>
+  </si>
+  <si>
+    <t>rich_dad</t>
+  </si>
+  <si>
+    <t>//*[contains(text(), 'Rich Dad Poor Dad: What the Rich Teach Their Kids About Money That the Poor and Middle Class Do Not!')]</t>
+  </si>
+  <si>
+    <t>four_disciplines</t>
+  </si>
+  <si>
+    <t>//*[contains(text(), 'The 4 Disciplines of Execution: Achieving Your Wildly Important Goals')]</t>
+  </si>
+  <si>
+    <t>google_netbook</t>
+  </si>
+  <si>
+    <t>(//*[contains(text(),'Google Pixelbook')])[1]</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>product_title</t>
+  </si>
+  <si>
+    <t>productTitle</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>priceblock_ourprice</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>add_to_cart</t>
+  </si>
+  <si>
+    <t>add-to-cart-button</t>
+  </si>
+  <si>
+    <t>total_customer_reviews</t>
+  </si>
+  <si>
+    <t>acrCustomerReviewText</t>
+  </si>
+  <si>
+    <t>view_cart</t>
+  </si>
+  <si>
+    <t>nav-cart</t>
+  </si>
+  <si>
+    <t>close_side_pane</t>
+  </si>
+  <si>
+    <t>attach-close_sideSheet-link</t>
+  </si>
+  <si>
+    <t>proceed</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>insurance_yes</t>
+  </si>
+  <si>
+    <t>attachSiAddCoverage</t>
+  </si>
+  <si>
+    <t>insurance_no</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,"NoCoverage-announce")]</t>
+  </si>
+  <si>
+    <t>echo_color_charcoal</t>
+  </si>
+  <si>
+    <t>color_name_0</t>
+  </si>
+  <si>
+    <t>echo_color_heather_gray</t>
+  </si>
+  <si>
+    <t>color_name_1</t>
+  </si>
+  <si>
+    <t>echo_color_sandstone</t>
+  </si>
+  <si>
+    <t>color_name_3</t>
+  </si>
+  <si>
+    <t>alexa_continue</t>
+  </si>
+  <si>
+    <t>a-button-input</t>
+  </si>
+  <si>
+    <t>radioButton</t>
+  </si>
+  <si>
+    <t>echo_add_protection</t>
+  </si>
+  <si>
+    <t>//*[@id="abb-intl-product-view-B07G267D8S"]/div[2]/div/div/div/div/label/input</t>
+  </si>
+  <si>
+    <t>echo_color_plumb</t>
+  </si>
+  <si>
+    <t>color_name_2</t>
+  </si>
+  <si>
+    <t>echo_try</t>
+  </si>
+  <si>
+    <t>//*[@id="abb-intl-product-view-B07G267D8S"]/div[2]/div/div/div/div/label</t>
+  </si>
+  <si>
+    <t>verify_product_in_cart</t>
+  </si>
+  <si>
+    <t>huc-v2-order-row-confirm-text</t>
+  </si>
+  <si>
+    <t>proceed_to_checkout</t>
+  </si>
+  <si>
+    <t>proceedToCheckout</t>
+  </si>
+  <si>
+    <t>cart_price</t>
+  </si>
+  <si>
+    <t>//*[@id="hlb-subcart"]/div[1]/span/span[2]</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>span[class='a-size-small sc-action-delete']</t>
+  </si>
+  <si>
+    <t>quantity_dd</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>quantity_0</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>sc-subtotal-amount-activecart</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sign_in</t>
+  </si>
+  <si>
+    <t>signInSubmit</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>email_box</t>
+  </si>
+  <si>
+    <t>ap_email</t>
+  </si>
+  <si>
+    <t>login_email</t>
+  </si>
+  <si>
+    <t>chasekopp6@gmail.com</t>
+  </si>
+  <si>
+    <t>login_pwd</t>
+  </si>
+  <si>
+    <t>TikiBarber63</t>
+  </si>
+  <si>
+    <t>password_box</t>
+  </si>
+  <si>
+    <t>ap_password</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>enterAddressFullName</t>
+  </si>
+  <si>
+    <t>address_line</t>
+  </si>
+  <si>
+    <t>enterAddressAddressLine::index::</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>enterAddressCity</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>enterAddressStateOrRegion</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>enterAddressPostalCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>enterAddressCountryCode</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>enterAddressPhoneNumber</t>
+  </si>
+  <si>
+    <t>delivery_instructions</t>
+  </si>
+  <si>
+    <t>AddressInstructions</t>
+  </si>
+  <si>
+    <t>gate_code</t>
+  </si>
+  <si>
+    <t>GateCode</t>
+  </si>
+  <si>
+    <t>sign_out</t>
+  </si>
+  <si>
+    <t>nav-item-signout</t>
+  </si>
+  <si>
+    <t>nav-link-accountList</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>//*[@id="flt-app"]/div[2]/main[4]/div[7]/div[1]/div[5]/div[1]/ol/li/div/div[1]/div[2]/div[1]/div[1]/div[5]/div[1]</t>
+  </si>
+  <si>
+    <t>google_pixelbook_go</t>
+  </si>
+  <si>
+    <t>(//*[contains(text(),'Google Pixelbook Go -')])[1]</t>
+  </si>
+  <si>
     <t>twotabsearchtextbox</t>
   </si>
   <si>
-    <t>span</t>
-  </si>
-  <si>
-    <t>search_button</t>
-  </si>
-  <si>
-    <t>nav-search-submit-text</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>tile_1_item</t>
-  </si>
-  <si>
-    <t>(//div[@id="desktop-grid-1"]//a)[::index::]</t>
-  </si>
-  <si>
-    <t>tile_2_item</t>
-  </si>
-  <si>
-    <t>(//div[@id="desktop-grid-2"]//a)[::index::]</t>
-  </si>
-  <si>
-    <t>qlink</t>
-  </si>
-  <si>
-    <t>quick_link</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/header/div/div[1]/p/a</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>booksOption</t>
-  </si>
-  <si>
-    <t>[value="search-alias=stripbooks"]</t>
-  </si>
-  <si>
-    <t>account_list</t>
-  </si>
-  <si>
-    <t>//*[@id="nav-link-accountList"]</t>
-  </si>
-  <si>
-    <t>signin</t>
-  </si>
-  <si>
-    <t>//*[@id="nav-flyout-ya-signin"]/a</t>
-  </si>
-  <si>
-    <t>account_name</t>
-  </si>
-  <si>
-    <t>//*[@id="nav-link-accountList"]/span[1]</t>
-  </si>
-  <si>
-    <t>expected_message</t>
-  </si>
-  <si>
-    <t>Hello, Chase</t>
-  </si>
-  <si>
-    <t>your_account</t>
-  </si>
-  <si>
-    <t>//*[@id="nav-al-your-account"]/a[2]</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>linktext</t>
-  </si>
-  <si>
-    <t>partiallinktext</t>
-  </si>
-  <si>
-    <t>tagname</t>
-  </si>
-  <si>
-    <t>search_result</t>
-  </si>
-  <si>
-    <t>(//div[@data-cel-widget="search_result_::index::"]//a)[2]</t>
-  </si>
-  <si>
-    <t>asus_zenbook</t>
-  </si>
-  <si>
-    <t>(//*[contains(text(),'ASUS ZenBook 13')])[1]</t>
-  </si>
-  <si>
-    <t>echo_dot</t>
-  </si>
-  <si>
-    <t>(//*[contains(text(), 'Echo Dot (3rd Gen)')])[1]</t>
-  </si>
-  <si>
-    <t>rich_dad</t>
-  </si>
-  <si>
-    <t>//*[contains(text(), 'Rich Dad Poor Dad: What the Rich Teach Their Kids About Money That the Poor and Middle Class Do Not!')]</t>
-  </si>
-  <si>
-    <t>four_disciplines</t>
-  </si>
-  <si>
-    <t>//*[contains(text(), 'The 4 Disciplines of Execution: Achieving Your Wildly Important Goals')]</t>
-  </si>
-  <si>
-    <t>google_netbook</t>
-  </si>
-  <si>
-    <t>(//*[contains(text(),'Google Pixelbook')])[1]</t>
-  </si>
-  <si>
-    <t>google_pixelbook_go</t>
-  </si>
-  <si>
-    <t>(//*[contains(text(),'Google Pixelbook Go -')])[1]</t>
-  </si>
-  <si>
     <t>clickme</t>
   </si>
   <si>
@@ -264,6 +589,9 @@
     <t>(//*[@class='mr-3'])[1]</t>
   </si>
   <si>
+    <t>radiobutton</t>
+  </si>
+  <si>
     <t>radiogroup</t>
   </si>
   <si>
@@ -274,15 +602,6 @@
   </si>
   <si>
     <t>fav_language</t>
-  </si>
-  <si>
-    <t>radiobutton</t>
-  </si>
-  <si>
-    <t>searchDropdownBox</t>
-  </si>
-  <si>
-    <t>search_dropdown</t>
   </si>
 </sst>
 </file>
@@ -665,23 +984,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C2654-837B-4083-B22D-56EF918CF8D5}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="20.8984375" customWidth="1"/>
-    <col min="4" max="4" width="34.8984375" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="28.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="2"/>
+    <col min="4" max="4" width="25.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.09765625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,150 +1207,608 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
+      <c r="D12" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F7 A9:F14 A8 E8:F8 C8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L12" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:F2 A4:F14 A3:C3 E3:F3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:K5" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:K4" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:K2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -862,10 +1832,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -874,90 +1844,90 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -969,236 +1939,494 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5024E3-81CA-4D04-903A-38B8D224F9BA}">
-  <dimension ref="A1:G15"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="25.59765625" customWidth="1"/>
-    <col min="5" max="5" width="22.296875" customWidth="1"/>
-    <col min="6" max="6" width="34.09765625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1" t="s">
+      <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:N18" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:L8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:L10" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>